--- a/160603_ExcelLibraryEditor.xlsx
+++ b/160603_ExcelLibraryEditor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5930" tabRatio="737" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5930" tabRatio="737" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OpaqueMaterial" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,45 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Timur</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Timur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+            0 = Facade,
+            1 = Roof,
+            2 = GroundFloor,
+            3  = InteriorFloor,
+            4 = ExteriorFloor,
+            5 = Partition</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Timur</author>
@@ -67,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="240">
   <si>
     <t>[lambda  rho c: U-Wert.net] [LCA ICE,  General Clay data]</t>
   </si>
@@ -188,613 +227,616 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Type [Facade,Roof,GroundFloor,InteriorFloor,ExteriorFloor,Partition]</t>
+    <t>General Concrete</t>
+  </si>
+  <si>
+    <t>Source unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Concrete</t>
+  </si>
+  <si>
+    <t>115mmSandLimeBrick</t>
+  </si>
+  <si>
+    <t>Plaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sand-Lime Brick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plaster</t>
+  </si>
+  <si>
+    <t>300mmConcrete 80mmInsulation 80mmScreed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XPS Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cement screed </t>
+  </si>
+  <si>
+    <t>Pine wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wood</t>
+  </si>
+  <si>
+    <t>Douglas fir</t>
+  </si>
+  <si>
+    <t>Oak</t>
+  </si>
+  <si>
+    <t>Spruce</t>
+  </si>
+  <si>
+    <t>Larch</t>
+  </si>
+  <si>
+    <t>Oriented strand board</t>
+  </si>
+  <si>
+    <t>Medium density fiberboard</t>
+  </si>
+  <si>
+    <t>Chipboard</t>
+  </si>
+  <si>
+    <t>Concrete reinforced 20-30 MPa</t>
+  </si>
+  <si>
+    <t>Concrete reinforced 30-50 MPa</t>
+  </si>
+  <si>
+    <t>Asphalt low binder content</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Screed</t>
+  </si>
+  <si>
+    <t>Asphalt high binder content</t>
+  </si>
+  <si>
+    <t>Lightweight concrete</t>
+  </si>
+  <si>
+    <t>Cement screed</t>
+  </si>
+  <si>
+    <t>Basalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Masonry</t>
+  </si>
+  <si>
+    <t>Granite</t>
+  </si>
+  <si>
+    <t>Lime stone</t>
+  </si>
+  <si>
+    <t>Adobe 1500kg_m3</t>
+  </si>
+  <si>
+    <t>Sand stone</t>
+  </si>
+  <si>
+    <t>Clinker brick 1400kg_m3</t>
+  </si>
+  <si>
+    <t>Clinker brick 1600kg_m3</t>
+  </si>
+  <si>
+    <t>Clinker brick 1800kg_m3</t>
+  </si>
+  <si>
+    <t>Clinker brick 2000kg_m3</t>
+  </si>
+  <si>
+    <t>Aerated concrete 350kg_m3</t>
+  </si>
+  <si>
+    <t>Aerated concrete 500kg_m3</t>
+  </si>
+  <si>
+    <t>Ytong block W PP 1.6-0.30</t>
+  </si>
+  <si>
+    <t>Poroton Plan-T10</t>
+  </si>
+  <si>
+    <t>Rigid foam  EPS 035</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Insulation</t>
+  </si>
+  <si>
+    <t>Rigid foam PUR no coating</t>
+  </si>
+  <si>
+    <t>Rigid foam PUR alu coating</t>
+  </si>
+  <si>
+    <t>Rigid foam PUR fleece coating</t>
+  </si>
+  <si>
+    <t>Wood fiber insulating board</t>
+  </si>
+  <si>
+    <t>Styrofoam</t>
+  </si>
+  <si>
+    <t>Vacuum insulation panel Variotec</t>
+  </si>
+  <si>
+    <t>Wood wool board 15mm</t>
+  </si>
+  <si>
+    <t>Wood wool board 25mm</t>
+  </si>
+  <si>
+    <t>Wood wool board 35mm</t>
+  </si>
+  <si>
+    <t>Wood wool board 50mm</t>
+  </si>
+  <si>
+    <t>Light adobe NF 700</t>
+  </si>
+  <si>
+    <t>Light adobe NF 1200</t>
+  </si>
+  <si>
+    <t>Light adobe NF 1800</t>
+  </si>
+  <si>
+    <t>Shale</t>
+  </si>
+  <si>
+    <t>Clinker brick</t>
+  </si>
+  <si>
+    <t>Ytong block W PP 2-0.35</t>
+  </si>
+  <si>
+    <t>Ytong block W PP 2-0.40</t>
+  </si>
+  <si>
+    <t>Ytong block W PP 4-0.50</t>
+  </si>
+  <si>
+    <t>Ytong block W PP 4-0.55</t>
+  </si>
+  <si>
+    <t>Ytong block W PP 4-0.60</t>
+  </si>
+  <si>
+    <t>Ytong block W PP 6-0.65</t>
+  </si>
+  <si>
+    <t>Poroton T12</t>
+  </si>
+  <si>
+    <t>Cork</t>
+  </si>
+  <si>
+    <t>Ytong Multipor DAA ds</t>
+  </si>
+  <si>
+    <t>Ytong Multipor WI WTR DI</t>
+  </si>
+  <si>
+    <t>Ytong Multipor WAP</t>
+  </si>
+  <si>
+    <t>Foam glass</t>
+  </si>
+  <si>
+    <t>Reed</t>
+  </si>
+  <si>
+    <t>Vacuum insulation panel Vacupor  NT-B2-S</t>
+  </si>
+  <si>
+    <t>Stainless Steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metal</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Rammed Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mansonry</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>SpecificHeat</t>
+  </si>
+  <si>
+    <t>ThermalEmittance</t>
+  </si>
+  <si>
+    <t>SolarAbsorptance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VisibleAbsorptance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmbodiedEnergy </t>
+  </si>
+  <si>
+    <t>EmbodiedCarbon</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Single pane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Standard clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Double pane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Low emissivity coating on layer e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Low emissivity coating on layer e3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Triple pane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Low emissivity coating on layer e2 and e5</t>
+  </si>
+  <si>
+    <t>SinglePaneClr</t>
+  </si>
+  <si>
+    <t>DoublePaneClr</t>
+  </si>
+  <si>
+    <t>DoublePaneLoEe2</t>
+  </si>
+  <si>
+    <t>DoublePaneLoEe3</t>
+  </si>
+  <si>
+    <t>TriplePaneLoE</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>tvis</t>
+  </si>
+  <si>
+    <t>uval</t>
+  </si>
+  <si>
+    <t>shgf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PeopleDensity </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IlluminanceTarget</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LightingPowerDensity</t>
+  </si>
+  <si>
+    <t>EquipmentPowerDensity</t>
+  </si>
+  <si>
+    <t>OccupancySchedule</t>
+  </si>
+  <si>
+    <t>EquipmentAvailibilitySchedule</t>
+  </si>
+  <si>
+    <t>LightsAvailibilitySchedule</t>
+  </si>
+  <si>
+    <t>DataSource</t>
+  </si>
+  <si>
+    <t>MeetingRoomLoads</t>
+  </si>
+  <si>
+    <t>BedroomLoads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  occBedroom</t>
+  </si>
+  <si>
+    <t>equipBedroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lightsBedroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SIA Merkblatt 2024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> occBedroom</t>
+  </si>
+  <si>
+    <t>KitchenLoads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> occKitchen</t>
+  </si>
+  <si>
+    <t>equipKitchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lightsKitchen</t>
+  </si>
+  <si>
+    <t>SingleOfficeLoads</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> occOffice</t>
+  </si>
+  <si>
+    <t>equipOffice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lightsOffice</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> occMeetingRoom</t>
+  </si>
+  <si>
+    <t>equipMeetingRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lightsMeetingRoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SIA Merkblatt 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SIA Merkblatt 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SIA Merkblatt 2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HeatingSetpoint </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CoolingSetpoint </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> true</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MinFreshAirPerson </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MinFreshAirArea </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Category </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MechVentIsOn </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BedroomHeatingCoolingMechVent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Residential</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KitchenHeatingCoolingMechVent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OfficeHeatingCoolingMechVent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MeetingRoomHeatingCoolingMechVent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LectureHallHeatingCoolingMechVent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InfiltrationIsOn </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InfiltrationModel </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InfiltrationAch </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PoorAirTightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Infiltration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ModerateAirTightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GoodAirTightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RoofConstruction </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FacadeConstruction </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SlabConstruction </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GroundConstruction </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PartitionConstruction </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SolidWood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 300mmInsulation 94mmSolidWood 24mmGypsum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 150mmScreedWithImpactSoundInsulation 140mmSolidWood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 120mmInsulation 200mmConcrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12mmGypsum 78mmSolidWood 12mmGypsum</t>
+  </si>
+  <si>
+    <t>SIA Merkblatt 2024</t>
+  </si>
+  <si>
+    <t>occOffice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SIA Merkblatt 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> based on SIA Merkblatt 2024 Occ Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SIA Merkblatt 2024</t>
+  </si>
+  <si>
+    <t>occLectureHall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> equipOffice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> equipLectureHall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lightsLectureHall</t>
+  </si>
+  <si>
+    <t>occMeetingRoom</t>
+  </si>
+  <si>
+    <t>occBedroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Residential </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Residential </t>
+  </si>
+  <si>
+    <t>lightsBedroom</t>
+  </si>
+  <si>
+    <t>occKitchen</t>
+  </si>
+  <si>
+    <t>lightsKitchen</t>
+  </si>
+  <si>
+    <t>occLibrary</t>
+  </si>
+  <si>
+    <t>equipLibrary</t>
+  </si>
+  <si>
+    <t>lightsLibrary</t>
+  </si>
+  <si>
+    <t>occSuperMarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Commercial</t>
+  </si>
+  <si>
+    <t>equipSuperMarket</t>
+  </si>
+  <si>
+    <t>lightsSuperMarket</t>
+  </si>
+  <si>
+    <t>occShopping</t>
+  </si>
+  <si>
+    <t>equipShopping</t>
+  </si>
+  <si>
+    <t>lightsShopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FlowRatePerFloorArea </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WaterSchedule </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WaterTemperatureInlet </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WaterSupplyTemperature </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> House </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AllOn</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>List of names, List of thickness</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>InteriorFloor</t>
   </si>
   <si>
     <t>Partition</t>
-  </si>
-  <si>
-    <t>General Concrete</t>
-  </si>
-  <si>
-    <t>Source unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Concrete</t>
-  </si>
-  <si>
-    <t>115mmSandLimeBrick</t>
-  </si>
-  <si>
-    <t>Plaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sand-Lime Brick</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plaster</t>
-  </si>
-  <si>
-    <t>300mmConcrete 80mmInsulation 80mmScreed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> XPS Board</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cement screed </t>
-  </si>
-  <si>
-    <t>List of names, List of thickness, Category and source</t>
-  </si>
-  <si>
-    <t>InteriorFloor</t>
-  </si>
-  <si>
-    <t>Pine wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wood</t>
-  </si>
-  <si>
-    <t>Douglas fir</t>
-  </si>
-  <si>
-    <t>Oak</t>
-  </si>
-  <si>
-    <t>Spruce</t>
-  </si>
-  <si>
-    <t>Larch</t>
-  </si>
-  <si>
-    <t>Oriented strand board</t>
-  </si>
-  <si>
-    <t>Medium density fiberboard</t>
-  </si>
-  <si>
-    <t>Chipboard</t>
-  </si>
-  <si>
-    <t>Concrete reinforced 20-30 MPa</t>
-  </si>
-  <si>
-    <t>Concrete reinforced 30-50 MPa</t>
-  </si>
-  <si>
-    <t>Asphalt low binder content</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Screed</t>
-  </si>
-  <si>
-    <t>Asphalt high binder content</t>
-  </si>
-  <si>
-    <t>Lightweight concrete</t>
-  </si>
-  <si>
-    <t>Cement screed</t>
-  </si>
-  <si>
-    <t>Basalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Masonry</t>
-  </si>
-  <si>
-    <t>Granite</t>
-  </si>
-  <si>
-    <t>Lime stone</t>
-  </si>
-  <si>
-    <t>Adobe 1500kg_m3</t>
-  </si>
-  <si>
-    <t>Sand stone</t>
-  </si>
-  <si>
-    <t>Clinker brick 1400kg_m3</t>
-  </si>
-  <si>
-    <t>Clinker brick 1600kg_m3</t>
-  </si>
-  <si>
-    <t>Clinker brick 1800kg_m3</t>
-  </si>
-  <si>
-    <t>Clinker brick 2000kg_m3</t>
-  </si>
-  <si>
-    <t>Aerated concrete 350kg_m3</t>
-  </si>
-  <si>
-    <t>Aerated concrete 500kg_m3</t>
-  </si>
-  <si>
-    <t>Ytong block W PP 1.6-0.30</t>
-  </si>
-  <si>
-    <t>Poroton Plan-T10</t>
-  </si>
-  <si>
-    <t>Rigid foam  EPS 035</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Insulation</t>
-  </si>
-  <si>
-    <t>Rigid foam PUR no coating</t>
-  </si>
-  <si>
-    <t>Rigid foam PUR alu coating</t>
-  </si>
-  <si>
-    <t>Rigid foam PUR fleece coating</t>
-  </si>
-  <si>
-    <t>Wood fiber insulating board</t>
-  </si>
-  <si>
-    <t>Styrofoam</t>
-  </si>
-  <si>
-    <t>Vacuum insulation panel Variotec</t>
-  </si>
-  <si>
-    <t>Wood wool board 15mm</t>
-  </si>
-  <si>
-    <t>Wood wool board 25mm</t>
-  </si>
-  <si>
-    <t>Wood wool board 35mm</t>
-  </si>
-  <si>
-    <t>Wood wool board 50mm</t>
-  </si>
-  <si>
-    <t>Light adobe NF 700</t>
-  </si>
-  <si>
-    <t>Light adobe NF 1200</t>
-  </si>
-  <si>
-    <t>Light adobe NF 1800</t>
-  </si>
-  <si>
-    <t>Shale</t>
-  </si>
-  <si>
-    <t>Clinker brick</t>
-  </si>
-  <si>
-    <t>Ytong block W PP 2-0.35</t>
-  </si>
-  <si>
-    <t>Ytong block W PP 2-0.40</t>
-  </si>
-  <si>
-    <t>Ytong block W PP 4-0.50</t>
-  </si>
-  <si>
-    <t>Ytong block W PP 4-0.55</t>
-  </si>
-  <si>
-    <t>Ytong block W PP 4-0.60</t>
-  </si>
-  <si>
-    <t>Ytong block W PP 6-0.65</t>
-  </si>
-  <si>
-    <t>Poroton T12</t>
-  </si>
-  <si>
-    <t>Cork</t>
-  </si>
-  <si>
-    <t>Ytong Multipor DAA ds</t>
-  </si>
-  <si>
-    <t>Ytong Multipor WI WTR DI</t>
-  </si>
-  <si>
-    <t>Ytong Multipor WAP</t>
-  </si>
-  <si>
-    <t>Foam glass</t>
-  </si>
-  <si>
-    <t>Reed</t>
-  </si>
-  <si>
-    <t>Vacuum insulation panel Vacupor  NT-B2-S</t>
-  </si>
-  <si>
-    <t>Stainless Steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metal</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>Rammed Earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mansonry</t>
-  </si>
-  <si>
-    <t>Conductivity</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>SpecificHeat</t>
-  </si>
-  <si>
-    <t>ThermalEmittance</t>
-  </si>
-  <si>
-    <t>SolarAbsorptance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VisibleAbsorptance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EmbodiedEnergy </t>
-  </si>
-  <si>
-    <t>EmbodiedCarbon</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Single pane</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Standard clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Double pane</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Low emissivity coating on layer e2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Low emissivity coating on layer e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Triple pane</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Low emissivity coating on layer e2 and e5</t>
-  </si>
-  <si>
-    <t>SinglePaneClr</t>
-  </si>
-  <si>
-    <t>DoublePaneClr</t>
-  </si>
-  <si>
-    <t>DoublePaneLoEe2</t>
-  </si>
-  <si>
-    <t>DoublePaneLoEe3</t>
-  </si>
-  <si>
-    <t>TriplePaneLoE</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>tvis</t>
-  </si>
-  <si>
-    <t>uval</t>
-  </si>
-  <si>
-    <t>shgf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PeopleDensity </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IlluminanceTarget</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LightingPowerDensity</t>
-  </si>
-  <si>
-    <t>EquipmentPowerDensity</t>
-  </si>
-  <si>
-    <t>OccupancySchedule</t>
-  </si>
-  <si>
-    <t>EquipmentAvailibilitySchedule</t>
-  </si>
-  <si>
-    <t>LightsAvailibilitySchedule</t>
-  </si>
-  <si>
-    <t>DataSource</t>
-  </si>
-  <si>
-    <t>MeetingRoomLoads</t>
-  </si>
-  <si>
-    <t>BedroomLoads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  occBedroom</t>
-  </si>
-  <si>
-    <t>equipBedroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lightsBedroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SIA Merkblatt 2024 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> occBedroom</t>
-  </si>
-  <si>
-    <t>KitchenLoads</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> occKitchen</t>
-  </si>
-  <si>
-    <t>equipKitchen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lightsKitchen</t>
-  </si>
-  <si>
-    <t>SingleOfficeLoads</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> occOffice</t>
-  </si>
-  <si>
-    <t>equipOffice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lightsOffice</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> occMeetingRoom</t>
-  </si>
-  <si>
-    <t>equipMeetingRoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lightsMeetingRoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SIA Merkblatt 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SIA Merkblatt 2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SIA Merkblatt 2027</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HeatingSetpoint </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CoolingSetpoint </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> true</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MinFreshAirPerson </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MinFreshAirArea </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Category </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MechVentIsOn </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BedroomHeatingCoolingMechVent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Residential</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KitchenHeatingCoolingMechVent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OfficeHeatingCoolingMechVent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MeetingRoomHeatingCoolingMechVent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LectureHallHeatingCoolingMechVent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> InfiltrationIsOn </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> InfiltrationModel </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> InfiltrationAch </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PoorAirTightness</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Infiltration</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ModerateAirTightness</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GoodAirTightness</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RoofConstruction </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FacadeConstruction </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SlabConstruction </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GroundConstruction </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PartitionConstruction </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SolidWood</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 300mmInsulation 94mmSolidWood 24mmGypsum</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 150mmScreedWithImpactSoundInsulation 140mmSolidWood</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 120mmInsulation 200mmConcrete</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12mmGypsum 78mmSolidWood 12mmGypsum</t>
-  </si>
-  <si>
-    <t>SIA Merkblatt 2024</t>
-  </si>
-  <si>
-    <t>occOffice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SIA Merkblatt 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> based on SIA Merkblatt 2024 Occ Schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  SIA Merkblatt 2024</t>
-  </si>
-  <si>
-    <t>occLectureHall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> equipOffice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> equipLectureHall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lightsLectureHall</t>
-  </si>
-  <si>
-    <t>occMeetingRoom</t>
-  </si>
-  <si>
-    <t>occBedroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Residential </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Residential </t>
-  </si>
-  <si>
-    <t>lightsBedroom</t>
-  </si>
-  <si>
-    <t>occKitchen</t>
-  </si>
-  <si>
-    <t>lightsKitchen</t>
-  </si>
-  <si>
-    <t>occLibrary</t>
-  </si>
-  <si>
-    <t>equipLibrary</t>
-  </si>
-  <si>
-    <t>lightsLibrary</t>
-  </si>
-  <si>
-    <t>occSuperMarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Commercial</t>
-  </si>
-  <si>
-    <t>equipSuperMarket</t>
-  </si>
-  <si>
-    <t>lightsSuperMarket</t>
-  </si>
-  <si>
-    <t>occShopping</t>
-  </si>
-  <si>
-    <t>equipShopping</t>
-  </si>
-  <si>
-    <t>lightsShopping</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FlowRatePerFloorArea </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WaterSchedule </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WaterTemperatureInlet </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WaterSupplyTemperature </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> House </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AllOn</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U49" sqref="U49"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1190,45 +1232,45 @@
         <v>35</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
         <v>0.13</v>
@@ -1263,10 +1305,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3">
         <v>0.12</v>
@@ -1301,10 +1343,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3">
         <v>0.18</v>
@@ -1339,10 +1381,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3">
         <v>0.13</v>
@@ -1377,10 +1419,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3">
         <v>0.13</v>
@@ -1415,10 +1457,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3">
         <v>0.13</v>
@@ -1453,10 +1495,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3">
         <v>0.09</v>
@@ -1491,10 +1533,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3">
         <v>0.14000000000000001</v>
@@ -1529,10 +1571,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
@@ -1567,10 +1609,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
@@ -1605,10 +1647,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -1643,10 +1685,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3">
         <v>0.75</v>
@@ -1681,10 +1723,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3">
         <v>0.75</v>
@@ -1719,10 +1761,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3">
         <v>1.3</v>
@@ -1757,10 +1799,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" s="3">
         <v>1.4</v>
@@ -1795,10 +1837,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C17" s="3">
         <v>3.5</v>
@@ -1833,10 +1875,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3">
         <v>2.8</v>
@@ -1871,10 +1913,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3">
         <v>1.4</v>
@@ -1909,10 +1951,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" s="3">
         <v>0.66</v>
@@ -1947,10 +1989,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C21" s="3">
         <v>2.2999999999999998</v>
@@ -1985,10 +2027,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C22" s="3">
         <v>0.57999999999999996</v>
@@ -2023,10 +2065,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" s="3">
         <v>0.68</v>
@@ -2061,10 +2103,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C24" s="3">
         <v>0.81</v>
@@ -2099,10 +2141,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C25" s="3">
         <v>0.96</v>
@@ -2137,10 +2179,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C26" s="3">
         <v>0.09</v>
@@ -2175,10 +2217,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3">
         <v>0.12</v>
@@ -2213,10 +2255,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C28" s="3">
         <v>0.08</v>
@@ -2251,10 +2293,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C29" s="3">
         <v>0.1</v>
@@ -2289,10 +2331,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C30" s="3">
         <v>3.5000000000000003E-2</v>
@@ -2327,10 +2369,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C31" s="3">
         <v>0.03</v>
@@ -2365,10 +2407,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C32" s="3">
         <v>2.5000000000000001E-2</v>
@@ -2403,10 +2445,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C33" s="3">
         <v>2.8000000000000001E-2</v>
@@ -2441,10 +2483,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C34" s="3">
         <v>4.2000000000000003E-2</v>
@@ -2479,10 +2521,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C35">
         <v>0.04</v>
@@ -2517,10 +2559,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C36" s="3">
         <v>7.0000000000000001E-3</v>
@@ -2555,10 +2597,10 @@
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2">
         <v>0.09</v>
@@ -2593,10 +2635,10 @@
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2">
         <v>0.09</v>
@@ -2631,10 +2673,10 @@
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2">
         <v>0.09</v>
@@ -2669,10 +2711,10 @@
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2">
         <v>0.09</v>
@@ -2707,10 +2749,10 @@
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C41" s="2">
         <v>0.21</v>
@@ -2745,10 +2787,10 @@
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C42" s="2">
         <v>0.47</v>
@@ -2783,10 +2825,10 @@
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C43" s="2">
         <v>0.91</v>
@@ -2821,10 +2863,10 @@
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C44" s="2">
         <v>2.2000000000000002</v>
@@ -2859,10 +2901,10 @@
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C45" s="2">
         <v>0.96</v>
@@ -2897,10 +2939,10 @@
     </row>
     <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C46" s="2">
         <v>0.09</v>
@@ -2935,10 +2977,10 @@
     </row>
     <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2">
         <v>0.1</v>
@@ -2973,10 +3015,10 @@
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2">
         <v>0.12</v>
@@ -3011,10 +3053,10 @@
     </row>
     <row r="49" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2">
         <v>0.14000000000000001</v>
@@ -3049,10 +3091,10 @@
     </row>
     <row r="50" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2">
         <v>0.16</v>
@@ -3087,10 +3129,10 @@
     </row>
     <row r="51" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2">
         <v>0.18</v>
@@ -3125,10 +3167,10 @@
     </row>
     <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2">
         <v>0.12</v>
@@ -3163,10 +3205,10 @@
     </row>
     <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C53" s="2">
         <v>0.05</v>
@@ -3201,10 +3243,10 @@
     </row>
     <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C54" s="2">
         <v>4.7E-2</v>
@@ -3239,10 +3281,10 @@
     </row>
     <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2">
         <v>4.2000000000000003E-2</v>
@@ -3277,10 +3319,10 @@
     </row>
     <row r="56" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2">
         <v>4.4999999999999998E-2</v>
@@ -3315,10 +3357,10 @@
     </row>
     <row r="57" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2">
         <v>5.6000000000000001E-2</v>
@@ -3353,10 +3395,10 @@
     </row>
     <row r="58" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2">
         <v>6.5000000000000002E-2</v>
@@ -3391,10 +3433,10 @@
     </row>
     <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2">
         <v>7.0000000000000001E-3</v>
@@ -3429,10 +3471,10 @@
     </row>
     <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C60" s="2">
         <v>45</v>
@@ -3467,10 +3509,10 @@
     </row>
     <row r="61" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2">
         <v>45</v>
@@ -3505,10 +3547,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2">
         <v>0.75</v>
@@ -3715,15 +3757,15 @@
         <v>24</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AY1" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
@@ -3870,15 +3912,15 @@
         <v>0</v>
       </c>
       <c r="AX2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AY2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B3" s="10">
         <v>0.1</v>
@@ -4025,15 +4067,15 @@
         <v>0.1</v>
       </c>
       <c r="AX3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AY3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
@@ -4180,15 +4222,15 @@
         <v>0</v>
       </c>
       <c r="AX4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AY4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" s="10">
         <v>0</v>
@@ -4335,15 +4377,15 @@
         <v>0</v>
       </c>
       <c r="AX5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AY5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B6" s="10">
         <v>0.1</v>
@@ -4490,15 +4532,15 @@
         <v>0.1</v>
       </c>
       <c r="AX6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AY6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
@@ -4645,15 +4687,15 @@
         <v>0</v>
       </c>
       <c r="AX7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AY7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B8" s="10">
         <v>0</v>
@@ -4800,15 +4842,15 @@
         <v>0</v>
       </c>
       <c r="AX8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AY8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B9" s="10">
         <v>0.1</v>
@@ -4955,15 +4997,15 @@
         <v>0.1</v>
       </c>
       <c r="AX9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AY9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B10" s="10">
         <v>0</v>
@@ -5110,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="AX10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AY10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5122,18 +5164,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.54296875" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" customWidth="1"/>
-    <col min="3" max="10" width="17.54296875" customWidth="1"/>
+    <col min="2" max="4" width="31.1796875" customWidth="1"/>
+    <col min="5" max="12" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -5141,10 +5183,16 @@
         <v>35</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>48</v>
+        <v>134</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -5152,88 +5200,89 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2">
         <v>0.2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.08</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.08</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4">
         <v>0.3</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.115</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5255,30 +5304,30 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
         <v>138</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D2">
         <v>0.91300000000000003</v>
@@ -5292,13 +5341,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D3">
         <v>0.81200000000000006</v>
@@ -5312,13 +5361,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D4">
         <v>0.44400000000000001</v>
@@ -5332,13 +5381,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D5">
         <v>0.76900000000000002</v>
@@ -5352,13 +5401,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>0.66100000000000003</v>
@@ -5391,39 +5440,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" t="s">
         <v>146</v>
-      </c>
-      <c r="F1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B2">
         <f>1 / 40</f>
@@ -5439,24 +5488,24 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" t="s">
         <v>153</v>
-      </c>
-      <c r="G2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B3">
         <f>1 / 40</f>
@@ -5472,24 +5521,24 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B4">
         <f>1 / 5</f>
@@ -5505,24 +5554,24 @@
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B5">
         <f>1 / 14</f>
@@ -5538,24 +5587,24 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B6">
         <f>1 / 3</f>
@@ -5571,19 +5620,19 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" t="s">
         <v>170</v>
-      </c>
-      <c r="I6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J6" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5606,30 +5655,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
         <v>171</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>176</v>
-      </c>
-      <c r="D1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>19</v>
@@ -5638,7 +5687,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E2">
         <v>2.5</v>
@@ -5647,12 +5696,12 @@
         <v>0.3</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -5661,7 +5710,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E3">
         <v>3.9</v>
@@ -5670,12 +5719,12 @@
         <v>0.9</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -5684,7 +5733,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E4">
         <v>2.5</v>
@@ -5693,12 +5742,12 @@
         <v>0.3</v>
       </c>
       <c r="G4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -5707,7 +5756,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E5">
         <v>3.8</v>
@@ -5716,12 +5765,12 @@
         <v>0.3</v>
       </c>
       <c r="G5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -5730,7 +5779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E6">
         <v>3.8</v>
@@ -5739,7 +5788,7 @@
         <v>0.3</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5752,7 +5801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5765,27 +5814,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C2">
         <v>1.2</v>
@@ -5794,15 +5843,15 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -5811,15 +5860,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C4">
         <v>0.15</v>
@@ -5828,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5853,42 +5902,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="s">
         <v>197</v>
-      </c>
-      <c r="C1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" t="s">
         <v>202</v>
-      </c>
-      <c r="B2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5914,27 +5963,27 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B2">
         <v>0.03</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -6041,10 +6090,10 @@
         <v>24</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
@@ -6071,7 +6120,7 @@
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6146,15 +6195,15 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AA2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -6229,15 +6278,15 @@
         <v>0.1</v>
       </c>
       <c r="Z3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AA3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6312,15 +6361,15 @@
         <v>0</v>
       </c>
       <c r="Z4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6395,15 +6444,15 @@
         <v>0</v>
       </c>
       <c r="Z5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AA5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6">
         <v>0.2</v>
@@ -6478,15 +6527,15 @@
         <v>0.2</v>
       </c>
       <c r="Z6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6561,15 +6610,15 @@
         <v>0</v>
       </c>
       <c r="Z7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6644,15 +6693,15 @@
         <v>0</v>
       </c>
       <c r="Z8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AA8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B9">
         <v>0.1</v>
@@ -6727,15 +6776,15 @@
         <v>0.1</v>
       </c>
       <c r="Z9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AA9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6810,15 +6859,15 @@
         <v>0</v>
       </c>
       <c r="Z10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AA10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6893,15 +6942,15 @@
         <v>0</v>
       </c>
       <c r="Z11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AA11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B12">
         <v>0.1</v>
@@ -6976,15 +7025,15 @@
         <v>0.1</v>
       </c>
       <c r="Z12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AA12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7059,15 +7108,15 @@
         <v>0</v>
       </c>
       <c r="Z13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AA13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7142,15 +7191,15 @@
         <v>0</v>
       </c>
       <c r="Z14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AA14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B15">
         <v>0.1</v>
@@ -7225,15 +7274,15 @@
         <v>0.1</v>
       </c>
       <c r="Z15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AA15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7308,10 +7357,10 @@
         <v>0</v>
       </c>
       <c r="Z16" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AA16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/160603_ExcelLibraryEditor.xlsx
+++ b/160603_ExcelLibraryEditor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5930" tabRatio="737" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5930" tabRatio="737"/>
   </bookViews>
   <sheets>
     <sheet name="OpaqueMaterial" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="253">
   <si>
     <t>[lambda  rho c: U-Wert.net] [LCA ICE,  General Clay data]</t>
   </si>
@@ -837,6 +837,45 @@
   </si>
   <si>
     <t>Partition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [lambda  rho c: dataholz.com] [ LCA ICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GypsumFibreBoard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boards</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cross Laminated Timber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Timber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mineral Wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bonded chippings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Impact sound insulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [lambda  rho c: Saint-Gobain Rigips][LCA  ICE (0.31fos + 0.41bio-embodied cabon emissions)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [lambda  rho c: dataholz.com][LCA  ICE (0.31fos + 0.41bio-embodied cabon emissions)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [lambda  rho c: dataholz.com]</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1255,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W87" sqref="W87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3581,6 +3621,323 @@
       </c>
       <c r="L62" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64">
+        <v>0.32</v>
+      </c>
+      <c r="D64">
+        <v>1000</v>
+      </c>
+      <c r="E64">
+        <v>1100</v>
+      </c>
+      <c r="F64">
+        <v>0.9</v>
+      </c>
+      <c r="G64">
+        <v>0.7</v>
+      </c>
+      <c r="H64">
+        <v>0.7</v>
+      </c>
+      <c r="I64">
+        <v>45</v>
+      </c>
+      <c r="J64">
+        <v>1.86</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65">
+        <v>0.13</v>
+      </c>
+      <c r="D65">
+        <v>500</v>
+      </c>
+      <c r="E65">
+        <v>1600</v>
+      </c>
+      <c r="F65">
+        <v>0.9</v>
+      </c>
+      <c r="G65">
+        <v>0.7</v>
+      </c>
+      <c r="H65">
+        <v>0.7</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65">
+        <v>0.71</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>2000</v>
+      </c>
+      <c r="E66">
+        <v>1130</v>
+      </c>
+      <c r="F66">
+        <v>0.9</v>
+      </c>
+      <c r="G66">
+        <v>0.6</v>
+      </c>
+      <c r="H66">
+        <v>0.6</v>
+      </c>
+      <c r="I66">
+        <v>1.33</v>
+      </c>
+      <c r="J66">
+        <v>0.221</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D67">
+        <v>155</v>
+      </c>
+      <c r="E67">
+        <v>1130</v>
+      </c>
+      <c r="F67">
+        <v>0.9</v>
+      </c>
+      <c r="G67">
+        <v>0.6</v>
+      </c>
+      <c r="H67">
+        <v>0.6</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D68">
+        <v>35</v>
+      </c>
+      <c r="E68">
+        <v>1400</v>
+      </c>
+      <c r="F68">
+        <v>0.9</v>
+      </c>
+      <c r="G68">
+        <v>0.6</v>
+      </c>
+      <c r="H68">
+        <v>0.6</v>
+      </c>
+      <c r="I68">
+        <v>87.4</v>
+      </c>
+      <c r="J68">
+        <v>2.8</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D69">
+        <v>1200</v>
+      </c>
+      <c r="E69">
+        <v>1000</v>
+      </c>
+      <c r="F69">
+        <v>0.9</v>
+      </c>
+      <c r="G69">
+        <v>0.6</v>
+      </c>
+      <c r="H69">
+        <v>0.6</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>246</v>
+      </c>
+      <c r="B70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70">
+        <v>0.7</v>
+      </c>
+      <c r="D70">
+        <v>1800</v>
+      </c>
+      <c r="E70">
+        <v>1000</v>
+      </c>
+      <c r="F70">
+        <v>0.9</v>
+      </c>
+      <c r="G70">
+        <v>0.6</v>
+      </c>
+      <c r="H70">
+        <v>0.6</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>247</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D71">
+        <v>120</v>
+      </c>
+      <c r="E71">
+        <v>1030</v>
+      </c>
+      <c r="F71">
+        <v>0.9</v>
+      </c>
+      <c r="G71">
+        <v>0.6</v>
+      </c>
+      <c r="H71">
+        <v>0.6</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -5167,8 +5524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5263,8 +5620,9 @@
       <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
-        <v>44</v>
+      <c r="F4" t="str">
+        <f>OpaqueMaterial!A35</f>
+        <v>Styrofoam</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
